--- a/Problems1-24-Autumn (1).xlsx
+++ b/Problems1-24-Autumn (1).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="250">
   <si>
     <t xml:space="preserve">Пусть T1 - множество чисел в римских цифрах, а T2 - множество чисел в арабских цифрах. A - отношение  над множествами T1 и T2.</t>
   </si>
@@ -707,13 +707,70 @@
     <t xml:space="preserve">14.</t>
   </si>
   <si>
-    <t xml:space="preserve">RANGE ANIMATOR IS R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANIMATOR.PAYMENT WHERE (RANGE X IS R2 X.SEASON = „S“ AND X.NAME == ANIMATOR.NAME) </t>
+    <t xml:space="preserve">RANGE PAYMENT IS R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANGE SEASON IS R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEASON.SEASON = „S“ AND SEASON.ANIMATE = PAYMENT.ANIMATE</t>
   </si>
   <si>
     <t xml:space="preserve">15.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1.ANIMATE→R2.ANIMATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANIMATE→PAYMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANIMATE→HOTEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1.ANIMATE→R2.SEASON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{R1.PAYMENT, R1.ANIMATE}→{R1.HOTEL}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANIMATE→</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOTEL→</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEASON→</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1.ANIMATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2.ANIMATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3.HOTEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4.SEASON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.</t>
   </si>
 </sst>
 </file>
@@ -837,7 +894,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -874,10 +931,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -902,19 +955,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -964,8 +1009,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1635480" y="15036840"/>
-          <a:ext cx="822600" cy="531720"/>
+          <a:off x="1636560" y="15036840"/>
+          <a:ext cx="823680" cy="531720"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1005,8 +1050,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3211560" y="14978880"/>
-          <a:ext cx="2626560" cy="695520"/>
+          <a:off x="3213720" y="14978880"/>
+          <a:ext cx="2629080" cy="695520"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1046,8 +1091,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4619160" y="15687000"/>
-          <a:ext cx="1109880" cy="396000"/>
+          <a:off x="4622400" y="15687000"/>
+          <a:ext cx="1111320" cy="396000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1087,8 +1132,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6442920" y="15716160"/>
-          <a:ext cx="1536480" cy="511920"/>
+          <a:off x="6447600" y="15716160"/>
+          <a:ext cx="1537560" cy="511920"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1118,20 +1163,20 @@
   </sheetPr>
   <dimension ref="A2:U194"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A160" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M156" activeCellId="0" sqref="M156"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A136" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S159" activeCellId="0" sqref="S159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="3.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="2.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="2.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.33"/>
   </cols>
@@ -1437,10 +1482,10 @@
       <c r="O21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q21" s="9" t="s">
+      <c r="Q21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="R21" s="9" t="n">
+      <c r="R21" s="8" t="n">
         <v>89</v>
       </c>
       <c r="T21" s="8" t="n">
@@ -1469,16 +1514,16 @@
       <c r="O22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Q22" s="9" t="s">
+      <c r="Q22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R22" s="9" t="n">
+      <c r="R22" s="8" t="n">
         <v>78</v>
       </c>
-      <c r="T22" s="9" t="s">
+      <c r="T22" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="9" t="n">
+      <c r="U22" s="8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1501,16 +1546,16 @@
       <c r="O23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q23" s="9" t="s">
+      <c r="Q23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R23" s="9" t="n">
+      <c r="R23" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="T23" s="9" t="n">
+      <c r="T23" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="U23" s="9" t="s">
+      <c r="U23" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1521,10 +1566,10 @@
       <c r="O24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="9" t="s">
+      <c r="Q24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="R24" s="9" t="n">
+      <c r="R24" s="8" t="n">
         <v>890</v>
       </c>
     </row>
@@ -1591,7 +1636,7 @@
       <c r="I31" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="9" t="s">
         <v>31</v>
       </c>
       <c r="K31" s="7" t="s">
@@ -1600,10 +1645,10 @@
       <c r="L31" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="O31" s="11" t="s">
+      <c r="O31" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P31" s="11" t="s">
+      <c r="P31" s="10" t="s">
         <v>33</v>
       </c>
       <c r="Q31" s="7" t="s">
@@ -1612,7 +1657,7 @@
       <c r="R31" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="S31" s="10" t="s">
+      <c r="S31" s="9" t="s">
         <v>31</v>
       </c>
       <c r="T31" s="7" t="s">
@@ -1725,16 +1770,16 @@
       <c r="I41" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="J41" s="9" t="s">
         <v>42</v>
       </c>
       <c r="K41" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="L41" s="12" t="s">
+      <c r="L41" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M41" s="13" t="s">
+      <c r="M41" s="12" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1768,16 +1813,16 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H50" s="14" t="s">
+      <c r="H50" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I50" s="14" t="s">
+      <c r="I50" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K50" s="14" t="s">
+      <c r="K50" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="L50" s="14" t="s">
+      <c r="L50" s="13" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1788,13 +1833,13 @@
       <c r="G51" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H51" s="15" t="n">
+      <c r="H51" s="14" t="n">
         <v>45544</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J51" s="10" t="s">
+      <c r="J51" s="9" t="s">
         <v>31</v>
       </c>
       <c r="K51" s="7" t="n">
@@ -1805,7 +1850,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H52" s="15" t="n">
+      <c r="H52" s="14" t="n">
         <v>45534</v>
       </c>
       <c r="I52" s="7" t="s">
@@ -1863,7 +1908,7 @@
       <c r="I59" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="J59" s="10" t="s">
+      <c r="J59" s="9" t="s">
         <v>31</v>
       </c>
       <c r="K59" s="7" t="n">
@@ -1898,10 +1943,10 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H63" s="16" t="n">
+      <c r="H63" s="7" t="n">
         <v>56</v>
       </c>
-      <c r="I63" s="16" t="n">
+      <c r="I63" s="7" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2054,7 +2099,7 @@
       <c r="J79" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="K79" s="17"/>
+      <c r="K79" s="15"/>
       <c r="L79" s="8" t="s">
         <v>69</v>
       </c>
@@ -2069,7 +2114,7 @@
       <c r="J80" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K80" s="17"/>
+      <c r="K80" s="15"/>
       <c r="L80" s="8" t="s">
         <v>26</v>
       </c>
@@ -2084,7 +2129,7 @@
       <c r="J81" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="K81" s="17"/>
+      <c r="K81" s="15"/>
       <c r="L81" s="8" t="s">
         <v>70</v>
       </c>
@@ -2099,7 +2144,7 @@
       <c r="J82" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="K82" s="17"/>
+      <c r="K82" s="15"/>
       <c r="L82" s="8" t="s">
         <v>36</v>
       </c>
@@ -2180,36 +2225,36 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I91" s="14" t="s">
+      <c r="I91" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J91" s="14" t="s">
+      <c r="J91" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K91" s="14" t="s">
+      <c r="K91" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L91" s="14" t="s">
+      <c r="L91" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="M91" s="14" t="s">
+      <c r="M91" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I92" s="14" t="s">
+      <c r="I92" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J92" s="14" t="s">
+      <c r="J92" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="K92" s="14" t="s">
+      <c r="K92" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="L92" s="14" t="s">
+      <c r="L92" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="M92" s="14" t="s">
+      <c r="M92" s="13" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2226,7 +2271,7 @@
       <c r="L93" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="M93" s="18" t="n">
+      <c r="M93" s="16" t="n">
         <v>36892</v>
       </c>
     </row>
@@ -2243,7 +2288,7 @@
       <c r="L94" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="M94" s="18" t="n">
+      <c r="M94" s="16" t="n">
         <v>39815</v>
       </c>
     </row>
@@ -2260,7 +2305,7 @@
       <c r="L95" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="M95" s="18" t="n">
+      <c r="M95" s="16" t="n">
         <v>43833</v>
       </c>
     </row>
@@ -2277,7 +2322,7 @@
       <c r="L96" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M96" s="18" t="n">
+      <c r="M96" s="16" t="n">
         <v>36892</v>
       </c>
     </row>
@@ -2294,7 +2339,7 @@
       <c r="L97" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="M97" s="18" t="n">
+      <c r="M97" s="16" t="n">
         <v>42374</v>
       </c>
     </row>
@@ -2315,48 +2360,48 @@
       <c r="F103" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="H103" s="14" t="s">
+      <c r="H103" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I103" s="14" t="s">
+      <c r="I103" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J103" s="14" t="s">
+      <c r="J103" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="K103" s="14" t="s">
+      <c r="K103" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="M103" s="19" t="s">
+      <c r="M103" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="N103" s="19" t="s">
+      <c r="N103" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O103" s="19" t="s">
+      <c r="O103" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H104" s="14" t="s">
+      <c r="H104" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="I104" s="14" t="s">
+      <c r="I104" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="J104" s="14" t="s">
+      <c r="J104" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="K104" s="14" t="s">
+      <c r="K104" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="M104" s="14" t="s">
+      <c r="M104" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="N104" s="19" t="s">
+      <c r="N104" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="O104" s="19" t="s">
+      <c r="O104" s="13" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2449,47 +2494,47 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F111" s="17" t="s">
+      <c r="F111" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H111" s="14" t="s">
+      <c r="H111" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I111" s="14" t="s">
+      <c r="I111" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J111" s="14" t="s">
+      <c r="J111" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="K111" s="20"/>
-      <c r="M111" s="19" t="s">
+      <c r="K111" s="17"/>
+      <c r="M111" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="N111" s="19" t="s">
+      <c r="N111" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O111" s="19" t="s">
+      <c r="O111" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H112" s="14" t="s">
+      <c r="H112" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="I112" s="14" t="s">
+      <c r="I112" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="J112" s="14" t="s">
+      <c r="J112" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="K112" s="20"/>
-      <c r="M112" s="14" t="s">
+      <c r="K112" s="17"/>
+      <c r="M112" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="N112" s="19" t="s">
+      <c r="N112" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="O112" s="19" t="s">
+      <c r="O112" s="13" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2503,7 +2548,7 @@
       <c r="J113" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K113" s="21"/>
+      <c r="K113" s="18"/>
       <c r="M113" s="7" t="s">
         <v>105</v>
       </c>
@@ -2524,7 +2569,7 @@
       <c r="J114" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K114" s="21"/>
+      <c r="K114" s="18"/>
       <c r="M114" s="7" t="s">
         <v>108</v>
       </c>
@@ -2545,7 +2590,7 @@
       <c r="J115" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K115" s="21"/>
+      <c r="K115" s="18"/>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H116" s="7" t="s">
@@ -2557,7 +2602,7 @@
       <c r="J116" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K116" s="21"/>
+      <c r="K116" s="18"/>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H117" s="7" t="s">
@@ -2569,54 +2614,54 @@
       <c r="J117" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K117" s="21"/>
+      <c r="K117" s="18"/>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F119" s="17" t="s">
+      <c r="F119" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="H119" s="14" t="s">
+      <c r="H119" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I119" s="14" t="s">
+      <c r="I119" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J119" s="14" t="s">
+      <c r="J119" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="K119" s="14" t="s">
+      <c r="K119" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="M119" s="19" t="s">
+      <c r="M119" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="N119" s="19" t="s">
+      <c r="N119" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O119" s="19" t="s">
+      <c r="O119" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H120" s="14" t="s">
+      <c r="H120" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="I120" s="14" t="s">
+      <c r="I120" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="J120" s="14" t="s">
+      <c r="J120" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="K120" s="14" t="s">
+      <c r="K120" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="M120" s="14" t="s">
+      <c r="M120" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="N120" s="19" t="s">
+      <c r="N120" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="O120" s="19" t="s">
+      <c r="O120" s="13" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2712,48 +2757,48 @@
       <c r="F127" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="H127" s="14" t="s">
+      <c r="H127" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I127" s="14" t="s">
+      <c r="I127" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J127" s="14" t="s">
+      <c r="J127" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="K127" s="14" t="s">
+      <c r="K127" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="M127" s="19" t="s">
+      <c r="M127" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="N127" s="19" t="s">
+      <c r="N127" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O127" s="19" t="s">
+      <c r="O127" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H128" s="14" t="s">
+      <c r="H128" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="I128" s="14" t="s">
+      <c r="I128" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="J128" s="14" t="s">
+      <c r="J128" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="K128" s="14" t="s">
+      <c r="K128" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="M128" s="14" t="s">
+      <c r="M128" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="N128" s="19" t="s">
+      <c r="N128" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="O128" s="19" t="s">
+      <c r="O128" s="13" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2846,51 +2891,51 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F135" s="17" t="s">
+      <c r="F135" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="H135" s="14" t="s">
+      <c r="H135" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I135" s="14" t="s">
+      <c r="I135" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J135" s="14" t="s">
+      <c r="J135" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="K135" s="14" t="s">
+      <c r="K135" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="M135" s="19" t="s">
+      <c r="M135" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="N135" s="19" t="s">
+      <c r="N135" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O135" s="19" t="s">
+      <c r="O135" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H136" s="14" t="s">
+      <c r="H136" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="I136" s="14" t="s">
+      <c r="I136" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="J136" s="14" t="s">
+      <c r="J136" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="K136" s="14" t="s">
+      <c r="K136" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="M136" s="14" t="s">
+      <c r="M136" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="N136" s="19" t="s">
+      <c r="N136" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="O136" s="19" t="s">
+      <c r="O136" s="13" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2996,7 +3041,7 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H146" s="14" t="s">
+      <c r="H146" s="13" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3030,31 +3075,31 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H152" s="14" t="s">
+      <c r="H152" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="I152" s="14" t="s">
+      <c r="I152" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="J152" s="14" t="s">
+      <c r="J152" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="M152" s="14" t="s">
+      <c r="M152" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="N152" s="14" t="s">
+      <c r="N152" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="O152" s="14" t="s">
+      <c r="O152" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="R152" s="19" t="s">
+      <c r="R152" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="S152" s="19" t="s">
+      <c r="S152" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="T152" s="19" t="s">
+      <c r="T152" s="13" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3187,10 +3232,10 @@
       <c r="O157" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R157" s="14" t="s">
+      <c r="R157" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="S157" s="14" t="s">
+      <c r="S157" s="13" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3204,13 +3249,13 @@
       <c r="J158" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="M158" s="16" t="s">
+      <c r="M158" s="7" t="s">
         <v>152</v>
       </c>
       <c r="N158" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="O158" s="16" t="n">
+      <c r="O158" s="7" t="n">
         <v>2</v>
       </c>
       <c r="Q158" s="0" t="s">
@@ -3219,7 +3264,7 @@
       <c r="R158" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="S158" s="22" t="n">
+      <c r="S158" s="19" t="n">
         <v>45627</v>
       </c>
     </row>
@@ -3236,7 +3281,7 @@
       <c r="R159" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="S159" s="22" t="n">
+      <c r="S159" s="19" t="n">
         <v>45047</v>
       </c>
     </row>
@@ -3428,13 +3473,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P184"/>
+  <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E190" activeCellId="0" sqref="E190"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A198" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J230" activeCellId="0" sqref="J230"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3620,10 +3665,10 @@
       <c r="G21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="9" t="n">
+      <c r="J21" s="8" t="n">
         <v>89</v>
       </c>
     </row>
@@ -3640,10 +3685,10 @@
       <c r="G22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="9" t="n">
+      <c r="J22" s="8" t="n">
         <v>78</v>
       </c>
     </row>
@@ -3660,10 +3705,10 @@
       <c r="G23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="9" t="n">
+      <c r="J23" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3674,10 +3719,10 @@
       <c r="G24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="9" t="n">
+      <c r="J24" s="8" t="n">
         <v>890</v>
       </c>
     </row>
@@ -3724,7 +3769,7 @@
       <c r="H31" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" s="9" t="s">
         <v>31</v>
       </c>
       <c r="J31" s="7" t="s">
@@ -3903,10 +3948,10 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D46" s="7" t="s">
@@ -3915,7 +3960,7 @@
       <c r="E46" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="9" t="s">
         <v>31</v>
       </c>
       <c r="G46" s="7" t="s">
@@ -4269,21 +4314,21 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="D76" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="E76" s="14" t="s">
+      <c r="E76" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="F76" s="14" t="s">
+      <c r="F76" s="13" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="15" t="n">
+      <c r="C77" s="14" t="n">
         <v>45544</v>
       </c>
       <c r="D77" s="7" t="s">
@@ -4297,7 +4342,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="15" t="n">
+      <c r="C78" s="14" t="n">
         <v>45534</v>
       </c>
       <c r="D78" s="7" t="s">
@@ -4311,7 +4356,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="15" t="n">
+      <c r="C79" s="14" t="n">
         <v>45544</v>
       </c>
       <c r="D79" s="7" t="s">
@@ -4325,7 +4370,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="15" t="n">
+      <c r="C80" s="14" t="n">
         <v>45534</v>
       </c>
       <c r="D80" s="7" t="s">
@@ -4561,39 +4606,39 @@
       <c r="B126" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C126" s="14" t="s">
+      <c r="C126" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D126" s="14" t="s">
+      <c r="D126" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E126" s="14" t="s">
+      <c r="E126" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="F126" s="14" t="s">
+      <c r="F126" s="13" t="s">
         <v>131</v>
       </c>
       <c r="H126" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="I126" s="14" t="s">
+      <c r="I126" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="J126" s="14" t="s">
+      <c r="J126" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="K126" s="14" t="s">
+      <c r="K126" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="L126" s="19" t="s">
+      <c r="L126" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="M126" s="19" t="s">
+      <c r="M126" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="N126" s="19"/>
-      <c r="O126" s="19"/>
-      <c r="P126" s="19"/>
+      <c r="N126" s="13"/>
+      <c r="O126" s="13"/>
+      <c r="P126" s="13"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C127" s="0" t="s">
@@ -4747,25 +4792,25 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C132" s="16" t="s">
+      <c r="C132" s="7" t="s">
         <v>152</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E132" s="16" t="n">
+      <c r="E132" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F132" s="0" t="n">
         <v>40000</v>
       </c>
-      <c r="I132" s="16" t="s">
+      <c r="I132" s="7" t="s">
         <v>152</v>
       </c>
       <c r="J132" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K132" s="16" t="n">
+      <c r="K132" s="7" t="n">
         <v>2</v>
       </c>
       <c r="L132" s="7" t="s">
@@ -4779,19 +4824,19 @@
       <c r="B136" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C136" s="14" t="s">
+      <c r="C136" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D136" s="14" t="s">
+      <c r="D136" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E136" s="14" t="s">
+      <c r="E136" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="F136" s="19" t="s">
+      <c r="F136" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="G136" s="19" t="s">
+      <c r="G136" s="13" t="s">
         <v>135</v>
       </c>
       <c r="I136" s="0" t="s">
@@ -4814,19 +4859,19 @@
       <c r="G137" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="J137" s="19" t="s">
+      <c r="J137" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="K137" s="19" t="s">
+      <c r="K137" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="L137" s="19" t="s">
+      <c r="L137" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="M137" s="14" t="s">
+      <c r="M137" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="N137" s="14" t="s">
+      <c r="N137" s="13" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4858,7 +4903,7 @@
       <c r="M138" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="N138" s="22" t="n">
+      <c r="N138" s="19" t="n">
         <v>45627</v>
       </c>
     </row>
@@ -4890,7 +4935,7 @@
       <c r="M139" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="N139" s="22" t="n">
+      <c r="N139" s="19" t="n">
         <v>45047</v>
       </c>
     </row>
@@ -4922,7 +4967,7 @@
       <c r="M140" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="N140" s="22" t="n">
+      <c r="N140" s="19" t="n">
         <v>45627</v>
       </c>
     </row>
@@ -4954,18 +4999,18 @@
       <c r="M141" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="N141" s="22" t="n">
+      <c r="N141" s="19" t="n">
         <v>45047</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C142" s="16" t="s">
+      <c r="C142" s="7" t="s">
         <v>152</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E142" s="16" t="n">
+      <c r="E142" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F142" s="7" t="s">
@@ -5114,7 +5159,7 @@
       <c r="M146" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="N146" s="22" t="n">
+      <c r="N146" s="19" t="n">
         <v>45627</v>
       </c>
     </row>
@@ -5146,18 +5191,18 @@
       <c r="M147" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="N147" s="22" t="n">
+      <c r="N147" s="19" t="n">
         <v>45047</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C148" s="16" t="s">
+      <c r="C148" s="7" t="s">
         <v>152</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E148" s="16" t="n">
+      <c r="E148" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F148" s="0" t="s">
@@ -5178,7 +5223,7 @@
       <c r="M148" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="N148" s="22" t="n">
+      <c r="N148" s="19" t="n">
         <v>45627</v>
       </c>
     </row>
@@ -5210,7 +5255,7 @@
       <c r="M149" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="N149" s="22" t="n">
+      <c r="N149" s="19" t="n">
         <v>45047</v>
       </c>
     </row>
@@ -5242,7 +5287,7 @@
       <c r="M150" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="N150" s="22" t="n">
+      <c r="N150" s="19" t="n">
         <v>45627</v>
       </c>
     </row>
@@ -5274,7 +5319,7 @@
       <c r="M151" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="N151" s="22" t="n">
+      <c r="N151" s="19" t="n">
         <v>45047</v>
       </c>
     </row>
@@ -5306,7 +5351,7 @@
       <c r="M152" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="N152" s="22" t="n">
+      <c r="N152" s="19" t="n">
         <v>45627</v>
       </c>
     </row>
@@ -5338,18 +5383,18 @@
       <c r="M153" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="N153" s="22" t="n">
+      <c r="N153" s="19" t="n">
         <v>45047</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C154" s="16" t="s">
+      <c r="C154" s="7" t="s">
         <v>152</v>
       </c>
       <c r="D154" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="E154" s="16" t="n">
+      <c r="E154" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F154" s="7" t="s">
@@ -5370,7 +5415,7 @@
       <c r="M154" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="N154" s="22" t="n">
+      <c r="N154" s="19" t="n">
         <v>45627</v>
       </c>
     </row>
@@ -5402,7 +5447,7 @@
       <c r="M155" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="N155" s="22" t="n">
+      <c r="N155" s="19" t="n">
         <v>45047</v>
       </c>
     </row>
@@ -5434,7 +5479,7 @@
       <c r="M156" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="N156" s="22" t="n">
+      <c r="N156" s="19" t="n">
         <v>45627</v>
       </c>
     </row>
@@ -5466,7 +5511,7 @@
       <c r="M157" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="N157" s="22" t="n">
+      <c r="N157" s="19" t="n">
         <v>45047</v>
       </c>
     </row>
@@ -5505,7 +5550,7 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C160" s="16" t="s">
+      <c r="C160" s="7" t="s">
         <v>152</v>
       </c>
       <c r="D160" s="0" t="s">
@@ -5649,30 +5694,678 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D178" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B179" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D179" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B180" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D180" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B181" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C178" s="7" t="s">
+      <c r="C181" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D178" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="0" t="s">
+      <c r="D181" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B182" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D182" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B183" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D183" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B186" s="0" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B182" s="0" t="s">
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B187" s="0" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B188" s="0" t="s">
         <v>230</v>
       </c>
     </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B192" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="E192" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="G192" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B193" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="E193" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B194" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B197" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B198" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B203" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D203" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D204" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C206" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C208" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="D208" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B211" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B212" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B213" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B214" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B217" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C217" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D217" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E217" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F217" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G217" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H217" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B218" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C218" s="7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="D218" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E218" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F218" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G218" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H218" s="19" t="n">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B219" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C219" s="7" t="n">
+        <v>30000</v>
+      </c>
+      <c r="D219" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E219" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F219" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G219" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H219" s="19" t="n">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B220" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C220" s="7" t="n">
+        <v>60000</v>
+      </c>
+      <c r="D220" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E220" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F220" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G220" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H220" s="19" t="n">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B221" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C221" s="7" t="n">
+        <v>17000</v>
+      </c>
+      <c r="D221" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E221" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F221" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G221" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H221" s="19" t="n">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B222" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C222" s="7" t="n">
+        <v>23000</v>
+      </c>
+      <c r="D222" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E222" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F222" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G222" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H222" s="19" t="n">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B223" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C223" s="7" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D223" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E223" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F223" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G223" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H223" s="19" t="n">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B224" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C224" s="7" t="n">
+        <v>32000</v>
+      </c>
+      <c r="D224" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E224" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F224" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G224" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H224" s="19" t="n">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B225" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C225" s="7" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D225" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E225" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F225" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G225" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H225" s="19" t="n">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B226" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C226" s="7" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D226" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E226" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F226" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G226" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H226" s="19" t="n">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B227" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C227" s="7" t="n">
+        <v>40000</v>
+      </c>
+      <c r="D227" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E227" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F227" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G227" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H227" s="19" t="n">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B228" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C228" s="7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="D228" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E228" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F228" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G228" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H228" s="19" t="n">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B229" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C229" s="7" t="n">
+        <v>30000</v>
+      </c>
+      <c r="D229" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E229" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F229" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G229" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H229" s="19" t="n">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B230" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C230" s="7" t="n">
+        <v>60000</v>
+      </c>
+      <c r="D230" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E230" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F230" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G230" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H230" s="19" t="n">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B231" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C231" s="7" t="n">
+        <v>17000</v>
+      </c>
+      <c r="D231" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E231" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F231" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G231" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H231" s="19" t="n">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B232" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C232" s="7" t="n">
+        <v>23000</v>
+      </c>
+      <c r="D232" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E232" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F232" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G232" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H232" s="19" t="n">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B233" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C233" s="7" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D233" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E233" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F233" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G233" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H233" s="19" t="n">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B234" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C234" s="7" t="n">
+        <v>32000</v>
+      </c>
+      <c r="D234" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E234" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F234" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G234" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H234" s="19" t="n">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B235" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C235" s="7" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D235" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E235" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F235" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G235" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H235" s="19" t="n">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B236" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C236" s="7" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D236" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E236" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F236" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G236" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H236" s="19" t="n">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B237" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C237" s="7" t="n">
+        <v>40000</v>
+      </c>
+      <c r="D237" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E237" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F237" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G237" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H237" s="19" t="n">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Problems1-24-Autumn (1).xlsx
+++ b/Problems1-24-Autumn (1).xlsx
@@ -3475,8 +3475,8 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A198" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J230" activeCellId="0" sqref="J230"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A183" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D209" activeCellId="0" sqref="D209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5844,11 +5844,11 @@
         <v>131</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B208" s="0" t="s">
+        <v>243</v>
+      </c>
       <c r="C208" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="D208" s="0" t="s">
         <v>150</v>
       </c>
     </row>
